--- a/data/dataset_clean.xlsx
+++ b/data/dataset_clean.xlsx
@@ -680,55 +680,35 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -885,55 +865,35 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1090,55 +1050,35 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1295,55 +1235,35 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1500,55 +1420,35 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1705,55 +1605,35 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -1910,55 +1790,35 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -2115,55 +1975,35 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -2320,55 +2160,35 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -2525,55 +2345,35 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
       </c>
       <c r="P11">
         <v>3</v>
@@ -2730,55 +2530,35 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -2935,55 +2715,35 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -3140,55 +2900,35 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -3345,55 +3085,35 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -3567,55 +3287,35 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -3772,55 +3472,35 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -3994,55 +3674,35 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
       </c>
       <c r="P20">
         <v>4</v>
@@ -4199,55 +3859,35 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -4404,55 +4044,35 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -4609,55 +4229,35 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
       </c>
       <c r="P23">
         <v>3</v>
@@ -4814,55 +4414,35 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -5019,55 +4599,35 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
       </c>
       <c r="P25">
         <v>5</v>
@@ -5224,55 +4784,35 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
       </c>
       <c r="P26">
         <v>3</v>
@@ -5429,55 +4969,35 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -5634,55 +5154,35 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -5839,55 +5339,35 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -6044,55 +5524,35 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
       </c>
       <c r="P30">
         <v>4</v>
@@ -6249,55 +5709,35 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
       </c>
       <c r="P31">
         <v>3</v>
@@ -6454,55 +5894,35 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32">
         <v>4</v>
@@ -6676,55 +6096,35 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
       </c>
       <c r="P34">
         <v>3</v>
@@ -6881,55 +6281,35 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -7086,55 +6466,35 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -7291,55 +6651,35 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
       </c>
       <c r="P37">
         <v>3</v>
@@ -7496,55 +6836,35 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
       </c>
       <c r="P38">
         <v>3</v>
@@ -7701,55 +7021,35 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -7906,55 +7206,35 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
       </c>
       <c r="P40">
         <v>3</v>
@@ -8111,55 +7391,35 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -8316,55 +7576,35 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -8521,55 +7761,35 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -8726,55 +7946,35 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -8948,55 +8148,35 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -9153,55 +8333,35 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -9358,55 +8518,35 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -9563,55 +8703,35 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
       </c>
       <c r="P49">
         <v>2</v>
@@ -9768,55 +8888,35 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
       </c>
       <c r="P50">
         <v>3</v>
@@ -9973,55 +9073,35 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -10178,55 +9258,35 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
       </c>
       <c r="P52">
         <v>3</v>
@@ -10383,55 +9443,35 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -10588,55 +9628,35 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
       </c>
       <c r="P54">
         <v>4</v>
@@ -10793,55 +9813,35 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -10998,55 +9998,35 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
       </c>
       <c r="P56">
         <v>3</v>
@@ -11220,55 +10200,35 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -11425,55 +10385,35 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -11664,55 +10604,35 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
       </c>
       <c r="P62">
         <v>2</v>
@@ -11886,55 +10806,35 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
       </c>
       <c r="P64">
         <v>2</v>
@@ -12091,55 +10991,35 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -12330,55 +11210,35 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -12535,55 +11395,35 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
       </c>
       <c r="P69">
         <v>2</v>
@@ -12740,55 +11580,35 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
       </c>
       <c r="P70">
         <v>3</v>
@@ -12945,55 +11765,35 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -13150,55 +11950,35 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
       </c>
       <c r="P72">
         <v>4</v>
@@ -13372,55 +12152,35 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
       </c>
       <c r="P74">
         <v>3</v>
@@ -13577,55 +12337,35 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -13782,55 +12522,35 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -13987,55 +12707,35 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
       </c>
       <c r="P77">
         <v>3</v>
@@ -14192,55 +12892,35 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
       </c>
       <c r="P78">
         <v>1</v>

--- a/data/dataset_clean.xlsx
+++ b/data/dataset_clean.xlsx
@@ -681,16 +681,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -699,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -866,16 +866,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -884,10 +884,10 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1051,16 +1051,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1069,10 +1069,10 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1236,16 +1236,16 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -1254,10 +1254,10 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1439,10 +1439,10 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1624,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -2179,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -2361,13 +2361,13 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -2716,13 +2716,13 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -2734,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -2901,16 +2901,16 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -2919,10 +2919,10 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -3086,16 +3086,16 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -3104,10 +3104,10 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3288,13 +3288,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3306,10 +3306,10 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -3491,10 +3491,10 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -3675,13 +3675,13 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -3860,13 +3860,13 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4045,13 +4045,13 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -4230,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -4248,10 +4248,10 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -4415,13 +4415,13 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -4433,10 +4433,10 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -4600,16 +4600,16 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -4618,10 +4618,10 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -4785,13 +4785,13 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -4970,16 +4970,16 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -4988,10 +4988,10 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -5155,16 +5155,16 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -5173,10 +5173,10 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -5340,16 +5340,16 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -5358,13 +5358,13 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -5525,16 +5525,16 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -5710,16 +5710,16 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -5728,10 +5728,10 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -5895,16 +5895,16 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -5913,10 +5913,10 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -6097,13 +6097,13 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -6282,13 +6282,13 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -6300,10 +6300,10 @@
         <v>2</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -6467,16 +6467,16 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -6485,10 +6485,10 @@
         <v>2</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -6652,13 +6652,13 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -6670,10 +6670,10 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -6855,10 +6855,10 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -7022,16 +7022,16 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -7225,13 +7225,13 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -7392,13 +7392,13 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -7577,16 +7577,16 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -7762,13 +7762,13 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -7777,10 +7777,10 @@
         <v>2</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>2</v>
@@ -8149,13 +8149,13 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -8519,13 +8519,13 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -8537,10 +8537,10 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -8704,16 +8704,16 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -9074,13 +9074,13 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -9092,10 +9092,10 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -9259,16 +9259,16 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -9277,13 +9277,13 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -9444,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -9629,13 +9629,13 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -9647,10 +9647,10 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -9832,10 +9832,10 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -9999,13 +9999,13 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -10404,10 +10404,10 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -10807,16 +10807,16 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10825,10 +10825,10 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -11010,10 +11010,10 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -11211,16 +11211,16 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -11229,10 +11229,10 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -11396,16 +11396,16 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -12338,13 +12338,13 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -12523,16 +12523,16 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -12726,10 +12726,10 @@
         <v>2</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -12911,10 +12911,10 @@
         <v>2</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>2</v>
